--- a/data/trans_orig/P36_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF734F48-328D-4270-A9FD-1CBB3BEAFA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4204E604-AF73-493F-877C-5DBB769C253C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DE0337D4-EBD8-493E-AD97-A754CF0E0E9D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{46C79F2A-62B4-44D0-A908-7E5F008B28F8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>69,92%</t>
   </si>
   <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
   </si>
   <si>
     <t>72,02%</t>
   </si>
   <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
   </si>
   <si>
     <t>71,21%</t>
   </si>
   <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
   </si>
   <si>
     <t>0.0</t>
@@ -104,28 +104,28 @@
     <t>30,08%</t>
   </si>
   <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
   </si>
   <si>
     <t>27,98%</t>
   </si>
   <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
   </si>
   <si>
     <t>28,79%</t>
   </si>
   <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>69,88%</t>
   </si>
   <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
   </si>
   <si>
     <t>63,97%</t>
   </si>
   <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
   </si>
   <si>
     <t>66,84%</t>
   </si>
   <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
   </si>
   <si>
     <t>30,12%</t>
   </si>
   <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
   </si>
   <si>
     <t>36,03%</t>
   </si>
   <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
   </si>
   <si>
     <t>33,16%</t>
   </si>
   <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,73 +194,73 @@
     <t>62,99%</t>
   </si>
   <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
   </si>
   <si>
     <t>60,45%</t>
   </si>
   <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
   </si>
   <si>
     <t>61,69%</t>
   </si>
   <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
   </si>
   <si>
     <t>37,01%</t>
   </si>
   <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
   </si>
   <si>
     <t>39,55%</t>
   </si>
   <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
   </si>
   <si>
     <t>38,31%</t>
   </si>
   <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
   </si>
   <si>
     <t>68,47%</t>
   </si>
   <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
   </si>
   <si>
     <t>65,04%</t>
   </si>
   <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
   </si>
   <si>
     <t>66,65%</t>
@@ -269,31 +269,31 @@
     <t>62,64%</t>
   </si>
   <si>
-    <t>68,32%</t>
+    <t>68,28%</t>
   </si>
   <si>
     <t>31,53%</t>
   </si>
   <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
   </si>
   <si>
     <t>34,96%</t>
   </si>
   <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
   </si>
   <si>
     <t>33,35%</t>
   </si>
   <si>
-    <t>31,68%</t>
+    <t>31,72%</t>
   </si>
   <si>
     <t>37,36%</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C6FF34-B467-4D13-ACA8-88FC17BB564A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26830481-B6D9-4E1C-91F1-8C9C69F0967A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P36_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36_R2-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4204E604-AF73-493F-877C-5DBB769C253C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{905B7816-04E9-4CA3-B1FC-17EC8D87C6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{46C79F2A-62B4-44D0-A908-7E5F008B28F8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{230B4A4A-37CB-4DEF-91B4-4CFB057F3F56}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26830481-B6D9-4E1C-91F1-8C9C69F0967A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BA5C1F-CC6B-4FF5-92D2-EC2606394926}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
